--- a/data/female_conditioning/virgin/4-1_oviposition_virgin_3.xlsx
+++ b/data/female_conditioning/virgin/4-1_oviposition_virgin_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster3/data/female_conditioning/virgin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBFD015-E436-7543-9770-175243AF74F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFDCDF8B-8FB5-234A-B043-3A681F3F57BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3256037D-D040-6248-98D4-D2C8454917A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{E42E543A-B529-3F43-B185-687BE42E1182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">4:1 Conditioned </t>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>4:1 Conditioned</t>
   </si>
   <si>
     <t>4:1 Unconditioned</t>
-  </si>
-  <si>
-    <t>plate</t>
   </si>
 </sst>
 </file>
@@ -415,27 +415,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB0B5A-22B4-D349-ADE9-FCEBBA32AC7F}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8806A61-E61D-DE49-A9E4-47B234154798}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="235" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -443,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -454,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -465,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -476,10 +477,21 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
